--- a/Migration/SQLServer/1_TranslateTableDDLs/SourceToTargetTablesConfig.xlsx
+++ b/Migration/SQLServer/1_TranslateTableDDLs/SourceToTargetTablesConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\migratemaster\modules\1_TranslateMetaData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repos\AzureSynapseScriptsAndAccelerators\Migration\SQLServer\1_TranslateTableDDLs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699F2F0-0D7A-46A5-B860-34C198B1EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC63CFA-9B76-4C99-92B5-EEF20C4B6678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2730" windowWidth="29040" windowHeight="16440" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6E24CC37-2027-4639-A45A-A26BB2FFCBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="56">
   <si>
     <t>Active</t>
   </si>
@@ -83,58 +85,124 @@
     <t>Round_Robin</t>
   </si>
   <si>
+    <t>DimAccount</t>
+  </si>
+  <si>
+    <t>DimCurrency</t>
+  </si>
+  <si>
+    <t>DimCustomer</t>
+  </si>
+  <si>
     <t>DimDate</t>
   </si>
   <si>
-    <t>YES</t>
+    <t>DimDepartmentGroup</t>
+  </si>
+  <si>
+    <t>DimGeography</t>
+  </si>
+  <si>
+    <t>DimOrganization</t>
+  </si>
+  <si>
+    <t>DimProductCategory</t>
+  </si>
+  <si>
+    <t>DimProductSubcategory</t>
+  </si>
+  <si>
+    <t>DimPromotion</t>
+  </si>
+  <si>
+    <t>DimReseller</t>
+  </si>
+  <si>
+    <t>DimSalesReason</t>
+  </si>
+  <si>
+    <t>DimScenario</t>
+  </si>
+  <si>
+    <t>FactCallCenter</t>
+  </si>
+  <si>
+    <t>FactCurrencyRate</t>
+  </si>
+  <si>
+    <t>FactFinance</t>
   </si>
   <si>
     <t>FactInternetSales</t>
   </si>
   <si>
-    <t>DimReseller</t>
+    <t>FactInternetSalesReason</t>
+  </si>
+  <si>
+    <t>FactProductInventory</t>
+  </si>
+  <si>
+    <t>FactResellerSales</t>
+  </si>
+  <si>
+    <t>FactSalesQuota</t>
+  </si>
+  <si>
+    <t>FactSurveyResponse</t>
+  </si>
+  <si>
+    <t>ProspectiveBuyer</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>edw</t>
+  </si>
+  <si>
+    <t>REPLICATE</t>
+  </si>
+  <si>
+    <t>HASH</t>
+  </si>
+  <si>
+    <t>OrderDateKey</t>
+  </si>
+  <si>
+    <t>SalesOrderNumber</t>
+  </si>
+  <si>
+    <t>ProductKey</t>
+  </si>
+  <si>
+    <t>ResellerKey</t>
+  </si>
+  <si>
+    <t>AccountKey</t>
+  </si>
+  <si>
+    <t>EmployeeKey</t>
+  </si>
+  <si>
+    <t>CustomerKey</t>
+  </si>
+  <si>
+    <t>DimEmployee</t>
+  </si>
+  <si>
+    <t>DimProduct</t>
   </si>
   <si>
     <t>FactInternetSalesMkeys</t>
   </si>
   <si>
-    <t>ProductKey</t>
-  </si>
-  <si>
-    <t>ProductKey, OrderDateKey</t>
-  </si>
-  <si>
-    <t>HASH</t>
-  </si>
-  <si>
-    <t>CCI</t>
-  </si>
-  <si>
-    <t>DimCustomer</t>
-  </si>
-  <si>
-    <t>DimProduct</t>
-  </si>
-  <si>
-    <t>DimGeography</t>
-  </si>
-  <si>
-    <t>DimEmployee</t>
-  </si>
-  <si>
-    <t>edw</t>
-  </si>
-  <si>
-    <t>AsaDbName</t>
-  </si>
-  <si>
-    <t>DimAccount</t>
-  </si>
-  <si>
     <t>HEAP</t>
   </si>
   <si>
-    <t>Replicate</t>
+    <t>OrderDateKey|ProductKey|ShipDateKey</t>
+  </si>
+  <si>
+    <t>yourSQLPoolDbName</t>
   </si>
 </sst>
 </file>
@@ -150,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,13 +227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,13 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,26 +561,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C95D336-C2E5-4EAE-B3DF-DF1A193E3293}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E599576C-D4BE-467C-A95F-C1003D82894A}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -531,13 +589,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -569,14 +627,14 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -585,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -601,14 +659,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -617,10 +675,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -633,14 +691,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -649,10 +707,10 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,14 +723,14 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -681,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -697,14 +755,14 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -713,10 +771,10 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,14 +787,14 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -745,10 +803,10 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -761,14 +819,14 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -777,10 +835,10 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -793,14 +851,14 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -809,13 +867,10 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -828,221 +883,603 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD2EAA75C8CCED4DA2934FC33F6F6C2E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc3f7cfa9dce80d29e770786bd7beba5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b392999-0789-4633-8401-bacf9b18ed54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a674cf0aad6eea348b91995a6b28f532" ns2:_="">
-    <xsd:import namespace="1b392999-0789-4633-8401-bacf9b18ed54"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b392999-0789-4633-8401-bacf9b18ed54" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2CF926-D3B9-4030-BAE0-0C1106481EDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CAE3BC2-E9F5-4C12-9392-FC938C5DF9AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1b392999-0789-4633-8401-bacf9b18ed54"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C16068F-6F90-42E3-93DF-9563B50FC860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>
--- a/Migration/SQLServer/1_TranslateTableDDLs/SourceToTargetTablesConfig.xlsx
+++ b/Migration/SQLServer/1_TranslateTableDDLs/SourceToTargetTablesConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repos\AzureSynapseScriptsAndAccelerators\Migration\SQLServer\1_TranslateTableDDLs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Migration\SQLServer\modules\1_TranslateTableDDLs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC63CFA-9B76-4C99-92B5-EEF20C4B6678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779863F-B257-445D-B4C1-1F0609CD6875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6E24CC37-2027-4639-A45A-A26BB2FFCBF2}"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="28770" windowHeight="15750" xr2:uid="{6E24CC37-2027-4639-A45A-A26BB2FFCBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,6 +193,9 @@
     <t>DimProduct</t>
   </si>
   <si>
+    <t>gailzsqlpool</t>
+  </si>
+  <si>
     <t>FactInternetSalesMkeys</t>
   </si>
   <si>
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t>OrderDateKey|ProductKey|ShipDateKey</t>
-  </si>
-  <si>
-    <t>yourSQLPoolDbName</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,10 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E599576C-D4BE-467C-A95F-C1003D82894A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -660,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -692,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -724,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -756,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -788,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -820,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -852,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -884,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -916,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -948,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
@@ -980,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -1012,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1044,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -1076,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -1108,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1140,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -1172,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -1207,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -1242,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -1277,13 +1291,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1297,8 +1311,8 @@
       <c r="J22" t="s">
         <v>42</v>
       </c>
-      <c r="K22" t="s">
-        <v>54</v>
+      <c r="K22" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1312,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -1347,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -1381,8 +1395,8 @@
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
-        <v>55</v>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
@@ -1416,8 +1430,8 @@
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
-        <v>55</v>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
@@ -1452,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
@@ -1466,11 +1480,11 @@
       <c r="H27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>53</v>
+      <c r="I27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Migration/SQLServer/1_TranslateTableDDLs/SourceToTargetTablesConfig.xlsx
+++ b/Migration/SQLServer/1_TranslateTableDDLs/SourceToTargetTablesConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Migration\SQLServer\modules\1_TranslateTableDDLs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repos\AzureSynapseScriptsAndAccelerators\Migration\SQLServer\1_TranslateTableDDLs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779863F-B257-445D-B4C1-1F0609CD6875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38541F1-4FC0-480C-B558-08ED5B990702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="28770" windowHeight="15750" xr2:uid="{6E24CC37-2027-4639-A45A-A26BB2FFCBF2}"/>
+    <workbookView xWindow="14303" yWindow="2355" windowWidth="24495" windowHeight="15945" xr2:uid="{6E24CC37-2027-4639-A45A-A26BB2FFCBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>DimProduct</t>
   </si>
   <si>
-    <t>gailzsqlpool</t>
-  </si>
-  <si>
     <t>FactInternetSalesMkeys</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>OrderDateKey|ProductKey|ShipDateKey</t>
+  </si>
+  <si>
+    <t>yourSynapseSQLPoolDbName</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:J27"/>
+      <selection activeCell="D3" sqref="D3:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -674,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -770,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -802,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -866,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -898,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -930,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
@@ -994,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1058,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -1090,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -1122,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1154,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -1186,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -1291,13 +1291,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1312,7 +1312,7 @@
         <v>42</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -1361,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -1395,8 +1395,8 @@
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
+      <c r="D25" t="s">
+        <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
@@ -1430,8 +1430,8 @@
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
@@ -1466,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
@@ -1481,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>15</v>
